--- a/biology/Virologie/Alphaendornavirus/Alphaendornavirus.xlsx
+++ b/biology/Virologie/Alphaendornavirus/Alphaendornavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphaendornavirus est un genre de virus appartenant à la famille des Endornaviridae, qui contient 24 espèces acceptées par l'ICTV. Ce sont des virus à ARN à double brin (ARNbc), rattachés au groupe III de la classification Baltimore.
-Ces virus infectent les plantes (phytovirus), les champignons et les oomycètes (mycovirus). A quelques exceptions près, ils n'affectent pas le phénotype de l'hôte. On les a signalés comme infectant des plantes cultivées économiquement importantes, telles que l'avocatier, l'orge, le poivron, le haricot commun, la fève, le melon et le riz, mais leur effet global sur les plantes n'est pas connu[1].
-Les Alphaendornavirus infectant les plantes n'ont pas de vecteurs connus et ne semblent pas se transmettre de plante à plante voisine, mais ils se transmettent par infestation des graines, à la fois par les ovules et par le pollen. Ils ne se transmettent pas par inoculation mécanique. Chez les plantes, ces virus ne peuvent pas se propager de cellule en cellule du fait de l'absence de protéine de mouvement[2]. 
-Les infections dues à des Alphaendornavirus sont généralement  asymptomatiques, toutefois on a associé le VfEV-447 (Vicia faba endornavirus) à une stérilité cytoplasmique mâle chez Vicia faba et le HmEV1-670 (Helicobasidium mompa endornavirus) à une diminution de la virulence du champignon de la pourriture violette des racines, Helicobasidium mompa[2].
+Ces virus infectent les plantes (phytovirus), les champignons et les oomycètes (mycovirus). A quelques exceptions près, ils n'affectent pas le phénotype de l'hôte. On les a signalés comme infectant des plantes cultivées économiquement importantes, telles que l'avocatier, l'orge, le poivron, le haricot commun, la fève, le melon et le riz, mais leur effet global sur les plantes n'est pas connu.
+Les Alphaendornavirus infectant les plantes n'ont pas de vecteurs connus et ne semblent pas se transmettre de plante à plante voisine, mais ils se transmettent par infestation des graines, à la fois par les ovules et par le pollen. Ils ne se transmettent pas par inoculation mécanique. Chez les plantes, ces virus ne peuvent pas se propager de cellule en cellule du fait de l'absence de protéine de mouvement. 
+Les infections dues à des Alphaendornavirus sont généralement  asymptomatiques, toutefois on a associé le VfEV-447 (Vicia faba endornavirus) à une stérilité cytoplasmique mâle chez Vicia faba et le HmEV1-670 (Helicobasidium mompa endornavirus) à une diminution de la virulence du champignon de la pourriture violette des racines, Helicobasidium mompa.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce virus n'a pas de virions, ni de vraie capside. Le génome d'ARNbc est encapsulé avec l'enzyme de réplicase virale[3].
-Le génome, monopartite (non segmenté), est un ARN linéaire à double brin, dont la taille varie de 14 à 17,6 kbases[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce virus n'a pas de virions, ni de vraie capside. Le génome d'ARNbc est encapsulé avec l'enzyme de réplicase virale.
+Le génome, monopartite (non segmenté), est un ARN linéaire à double brin, dont la taille varie de 14 à 17,6 kbases.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (19 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (19 janvier 2021) :
 Agaricus bisporus alphaendornavirus 1 (ABEV)
 Basella alba alphaendornavirus 1 (BAEV)
 Bell pepper alphaendornavirus (BpEV)
